--- a/xlsx/茅利塔尼亞_intext.xlsx
+++ b/xlsx/茅利塔尼亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="890">
   <si>
     <t>茅利塔尼亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>毛里塔尼亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_茅利塔尼亞</t>
+    <t>体育运动_体育运动_南非_茅利塔尼亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>毛里塔尼亚总理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Yahya_Ould_Hademine</t>
+  </si>
+  <si>
+    <t>en-Yahya Ould Hademine</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
@@ -3027,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:I479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3864,7 +3870,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -3893,7 +3899,7 @@
         <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -3922,7 +3928,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3951,7 +3957,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3980,7 +3986,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -4009,7 +4015,7 @@
         <v>62</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -4154,7 +4160,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -4183,7 +4189,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -4241,7 +4247,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -4270,7 +4276,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -4299,7 +4305,7 @@
         <v>82</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -4328,7 +4334,7 @@
         <v>84</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -4357,7 +4363,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -4386,7 +4392,7 @@
         <v>88</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -4415,7 +4421,7 @@
         <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -4444,7 +4450,7 @@
         <v>92</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -4473,7 +4479,7 @@
         <v>94</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -4589,7 +4595,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4618,7 +4624,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -4647,7 +4653,7 @@
         <v>106</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -4734,7 +4740,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -4815,13 +4821,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -4844,13 +4850,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -4879,7 +4885,7 @@
         <v>120</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -4937,7 +4943,7 @@
         <v>124</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -4966,7 +4972,7 @@
         <v>126</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -5546,7 +5552,7 @@
         <v>166</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -5575,7 +5581,7 @@
         <v>168</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -5604,7 +5610,7 @@
         <v>170</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -5633,7 +5639,7 @@
         <v>172</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -5691,7 +5697,7 @@
         <v>176</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -5749,7 +5755,7 @@
         <v>180</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5807,7 +5813,7 @@
         <v>184</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5836,7 +5842,7 @@
         <v>186</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -5981,7 +5987,7 @@
         <v>196</v>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -6010,7 +6016,7 @@
         <v>198</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -6033,13 +6039,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -6062,13 +6068,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -6091,13 +6097,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -6120,10 +6126,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6184,7 +6190,7 @@
         <v>206</v>
       </c>
       <c r="G109" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -6213,7 +6219,7 @@
         <v>208</v>
       </c>
       <c r="G110" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6242,7 +6248,7 @@
         <v>210</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -6271,7 +6277,7 @@
         <v>212</v>
       </c>
       <c r="G112" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -6300,7 +6306,7 @@
         <v>214</v>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6329,7 +6335,7 @@
         <v>216</v>
       </c>
       <c r="G114" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -6358,7 +6364,7 @@
         <v>218</v>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6387,7 +6393,7 @@
         <v>220</v>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -6416,7 +6422,7 @@
         <v>222</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -6445,7 +6451,7 @@
         <v>224</v>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -6503,7 +6509,7 @@
         <v>228</v>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6532,7 +6538,7 @@
         <v>230</v>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6561,7 +6567,7 @@
         <v>232</v>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -6619,7 +6625,7 @@
         <v>236</v>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -6648,7 +6654,7 @@
         <v>238</v>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -6677,7 +6683,7 @@
         <v>240</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -6706,7 +6712,7 @@
         <v>242</v>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -6735,7 +6741,7 @@
         <v>244</v>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -6764,7 +6770,7 @@
         <v>246</v>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -6793,7 +6799,7 @@
         <v>248</v>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6822,7 +6828,7 @@
         <v>250</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6851,7 +6857,7 @@
         <v>252</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6880,7 +6886,7 @@
         <v>254</v>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6909,7 +6915,7 @@
         <v>256</v>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6938,7 +6944,7 @@
         <v>258</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6967,7 +6973,7 @@
         <v>260</v>
       </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6996,7 +7002,7 @@
         <v>262</v>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -7025,7 +7031,7 @@
         <v>264</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -7054,7 +7060,7 @@
         <v>266</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7083,7 +7089,7 @@
         <v>268</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -7112,7 +7118,7 @@
         <v>270</v>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -7141,7 +7147,7 @@
         <v>272</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -7170,7 +7176,7 @@
         <v>274</v>
       </c>
       <c r="G143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7199,7 +7205,7 @@
         <v>276</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7228,7 +7234,7 @@
         <v>278</v>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -7257,7 +7263,7 @@
         <v>280</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -7286,7 +7292,7 @@
         <v>282</v>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7315,7 +7321,7 @@
         <v>284</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7373,7 +7379,7 @@
         <v>288</v>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -7402,7 +7408,7 @@
         <v>290</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -7460,7 +7466,7 @@
         <v>294</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -7489,7 +7495,7 @@
         <v>296</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7518,7 +7524,7 @@
         <v>298</v>
       </c>
       <c r="G155" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7547,7 +7553,7 @@
         <v>300</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7576,7 +7582,7 @@
         <v>302</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7634,7 +7640,7 @@
         <v>306</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7692,7 +7698,7 @@
         <v>310</v>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7721,7 +7727,7 @@
         <v>312</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7750,7 +7756,7 @@
         <v>314</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7779,7 +7785,7 @@
         <v>316</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7808,7 +7814,7 @@
         <v>318</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7837,7 +7843,7 @@
         <v>320</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -8330,7 +8336,7 @@
         <v>354</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8359,7 +8365,7 @@
         <v>356</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8475,7 +8481,7 @@
         <v>364</v>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8504,7 +8510,7 @@
         <v>366</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8533,7 +8539,7 @@
         <v>368</v>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8562,7 +8568,7 @@
         <v>370</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8591,7 +8597,7 @@
         <v>372</v>
       </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8620,7 +8626,7 @@
         <v>374</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8649,7 +8655,7 @@
         <v>376</v>
       </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8765,7 +8771,7 @@
         <v>384</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8794,7 +8800,7 @@
         <v>386</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8823,7 +8829,7 @@
         <v>388</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8852,7 +8858,7 @@
         <v>390</v>
       </c>
       <c r="G201" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8881,7 +8887,7 @@
         <v>392</v>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8910,7 +8916,7 @@
         <v>394</v>
       </c>
       <c r="G203" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8939,7 +8945,7 @@
         <v>396</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8968,7 +8974,7 @@
         <v>398</v>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8991,13 +8997,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>219</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -9020,13 +9026,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F207" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G207" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -9049,13 +9055,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>215</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>216</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9113,7 +9119,7 @@
         <v>404</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9142,7 +9148,7 @@
         <v>406</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9200,7 +9206,7 @@
         <v>410</v>
       </c>
       <c r="G213" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -9229,7 +9235,7 @@
         <v>412</v>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9287,7 +9293,7 @@
         <v>416</v>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9316,7 +9322,7 @@
         <v>418</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9374,7 +9380,7 @@
         <v>422</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9397,10 +9403,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>273</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>274</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9426,10 +9432,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>275</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>276</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9490,7 +9496,7 @@
         <v>428</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9571,13 +9577,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9600,13 +9606,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9635,7 +9641,7 @@
         <v>436</v>
       </c>
       <c r="G228" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9664,7 +9670,7 @@
         <v>438</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9693,7 +9699,7 @@
         <v>440</v>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9751,7 +9757,7 @@
         <v>444</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9809,7 +9815,7 @@
         <v>448</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9832,13 +9838,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>235</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9861,13 +9867,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9954,7 +9960,7 @@
         <v>456</v>
       </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9983,7 +9989,7 @@
         <v>458</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10099,7 +10105,7 @@
         <v>466</v>
       </c>
       <c r="G244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10128,7 +10134,7 @@
         <v>468</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10157,7 +10163,7 @@
         <v>470</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10186,7 +10192,7 @@
         <v>472</v>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10215,7 +10221,7 @@
         <v>474</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10244,7 +10250,7 @@
         <v>476</v>
       </c>
       <c r="G249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10273,7 +10279,7 @@
         <v>478</v>
       </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10412,13 +10418,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>255</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>256</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10441,13 +10447,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>257</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>258</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10476,7 +10482,7 @@
         <v>490</v>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10505,7 +10511,7 @@
         <v>492</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10534,7 +10540,7 @@
         <v>494</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10563,7 +10569,7 @@
         <v>496</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10650,7 +10656,7 @@
         <v>502</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10702,13 +10708,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10731,10 +10737,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>411</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>412</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10766,7 +10772,7 @@
         <v>508</v>
       </c>
       <c r="G267" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10795,7 +10801,7 @@
         <v>510</v>
       </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10824,7 +10830,7 @@
         <v>512</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10911,7 +10917,7 @@
         <v>518</v>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10940,7 +10946,7 @@
         <v>520</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10998,7 +11004,7 @@
         <v>524</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11027,7 +11033,7 @@
         <v>526</v>
       </c>
       <c r="G276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11056,7 +11062,7 @@
         <v>528</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11114,7 +11120,7 @@
         <v>532</v>
       </c>
       <c r="G279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11143,7 +11149,7 @@
         <v>534</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11172,7 +11178,7 @@
         <v>536</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11201,7 +11207,7 @@
         <v>538</v>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11259,7 +11265,7 @@
         <v>542</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11317,7 +11323,7 @@
         <v>546</v>
       </c>
       <c r="G286" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11346,7 +11352,7 @@
         <v>548</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11375,7 +11381,7 @@
         <v>550</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11433,7 +11439,7 @@
         <v>554</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11514,10 +11520,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>95</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>96</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11543,10 +11549,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>97</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>98</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11578,7 +11584,7 @@
         <v>562</v>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11607,7 +11613,7 @@
         <v>564</v>
       </c>
       <c r="G296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -11636,7 +11642,7 @@
         <v>566</v>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11665,7 +11671,7 @@
         <v>568</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11694,7 +11700,7 @@
         <v>570</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11723,7 +11729,7 @@
         <v>572</v>
       </c>
       <c r="G300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11781,7 +11787,7 @@
         <v>576</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11810,7 +11816,7 @@
         <v>578</v>
       </c>
       <c r="G303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11839,7 +11845,7 @@
         <v>580</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11949,10 +11955,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>271</v>
+        <v>587</v>
       </c>
       <c r="F308" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11978,13 +11984,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>273</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>274</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12042,7 +12048,7 @@
         <v>592</v>
       </c>
       <c r="G311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12071,7 +12077,7 @@
         <v>594</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12100,7 +12106,7 @@
         <v>596</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12152,10 +12158,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>85</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>86</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12181,13 +12187,13 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>87</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>88</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12332,7 +12338,7 @@
         <v>610</v>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12361,7 +12367,7 @@
         <v>612</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12390,7 +12396,7 @@
         <v>614</v>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12419,7 +12425,7 @@
         <v>616</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12448,7 +12454,7 @@
         <v>618</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12477,7 +12483,7 @@
         <v>620</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12506,7 +12512,7 @@
         <v>622</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12535,7 +12541,7 @@
         <v>624</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12558,10 +12564,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="F329" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12587,10 +12593,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="F330" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12651,7 +12657,7 @@
         <v>630</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12680,7 +12686,7 @@
         <v>632</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12796,7 +12802,7 @@
         <v>640</v>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12825,7 +12831,7 @@
         <v>642</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13289,7 +13295,7 @@
         <v>674</v>
       </c>
       <c r="G354" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13318,7 +13324,7 @@
         <v>676</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13347,7 +13353,7 @@
         <v>678</v>
       </c>
       <c r="G356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13376,7 +13382,7 @@
         <v>680</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13405,7 +13411,7 @@
         <v>682</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13579,7 +13585,7 @@
         <v>694</v>
       </c>
       <c r="G364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13608,7 +13614,7 @@
         <v>696</v>
       </c>
       <c r="G365" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -13631,13 +13637,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>244</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13660,10 +13666,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>697</v>
+        <v>245</v>
       </c>
       <c r="F367" t="s">
-        <v>698</v>
+        <v>246</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13753,7 +13759,7 @@
         <v>704</v>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13805,13 +13811,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>377</v>
+        <v>707</v>
       </c>
       <c r="F372" t="s">
-        <v>378</v>
+        <v>708</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13834,10 +13840,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>707</v>
+        <v>379</v>
       </c>
       <c r="F373" t="s">
-        <v>708</v>
+        <v>380</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13956,7 +13962,7 @@
         <v>716</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13985,7 +13991,7 @@
         <v>718</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14043,7 +14049,7 @@
         <v>722</v>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14101,7 +14107,7 @@
         <v>726</v>
       </c>
       <c r="G382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14304,7 +14310,7 @@
         <v>740</v>
       </c>
       <c r="G389" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14333,7 +14339,7 @@
         <v>742</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14449,7 +14455,7 @@
         <v>750</v>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14478,7 +14484,7 @@
         <v>752</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -14536,7 +14542,7 @@
         <v>756</v>
       </c>
       <c r="G397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14565,7 +14571,7 @@
         <v>758</v>
       </c>
       <c r="G398" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -14617,10 +14623,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>93</v>
+        <v>761</v>
       </c>
       <c r="F400" t="s">
-        <v>94</v>
+        <v>762</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14646,10 +14652,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>761</v>
+        <v>95</v>
       </c>
       <c r="F401" t="s">
-        <v>762</v>
+        <v>96</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15052,10 +15058,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>261</v>
+        <v>789</v>
       </c>
       <c r="F415" t="s">
-        <v>262</v>
+        <v>790</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15081,10 +15087,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>789</v>
+        <v>263</v>
       </c>
       <c r="F416" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15110,13 +15116,13 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>263</v>
+        <v>791</v>
       </c>
       <c r="F417" t="s">
-        <v>264</v>
+        <v>792</v>
       </c>
       <c r="G417" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -15139,13 +15145,13 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>791</v>
+        <v>265</v>
       </c>
       <c r="F418" t="s">
-        <v>792</v>
+        <v>266</v>
       </c>
       <c r="G418" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15174,7 +15180,7 @@
         <v>794</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15348,7 +15354,7 @@
         <v>806</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15406,7 +15412,7 @@
         <v>810</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15661,10 +15667,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>387</v>
+        <v>827</v>
       </c>
       <c r="F436" t="s">
-        <v>388</v>
+        <v>828</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15690,10 +15696,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>827</v>
+        <v>389</v>
       </c>
       <c r="F437" t="s">
-        <v>828</v>
+        <v>390</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15748,13 +15754,13 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>481</v>
+        <v>831</v>
       </c>
       <c r="F439" t="s">
-        <v>482</v>
+        <v>832</v>
       </c>
       <c r="G439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H439" t="s">
         <v>4</v>
@@ -15777,10 +15783,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>831</v>
+        <v>483</v>
       </c>
       <c r="F440" t="s">
-        <v>832</v>
+        <v>484</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -15812,7 +15818,7 @@
         <v>834</v>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -15835,13 +15841,13 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>85</v>
+        <v>835</v>
       </c>
       <c r="F442" t="s">
-        <v>86</v>
+        <v>836</v>
       </c>
       <c r="G442" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -15864,13 +15870,13 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>835</v>
+        <v>87</v>
       </c>
       <c r="F443" t="s">
-        <v>836</v>
+        <v>88</v>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -15899,7 +15905,7 @@
         <v>838</v>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -15922,10 +15928,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>559</v>
+        <v>839</v>
       </c>
       <c r="F445" t="s">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15951,13 +15957,13 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>839</v>
+        <v>561</v>
       </c>
       <c r="F446" t="s">
-        <v>840</v>
+        <v>562</v>
       </c>
       <c r="G446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -16038,13 +16044,13 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>505</v>
+        <v>845</v>
       </c>
       <c r="F449" t="s">
-        <v>506</v>
+        <v>846</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -16067,13 +16073,13 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="F450" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="G450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16096,13 +16102,13 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>845</v>
+        <v>439</v>
       </c>
       <c r="F451" t="s">
-        <v>846</v>
+        <v>440</v>
       </c>
       <c r="G451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -16131,7 +16137,7 @@
         <v>848</v>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -16160,7 +16166,7 @@
         <v>850</v>
       </c>
       <c r="G453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H453" t="s">
         <v>4</v>
@@ -16183,13 +16189,13 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>263</v>
+        <v>851</v>
       </c>
       <c r="F454" t="s">
-        <v>264</v>
+        <v>852</v>
       </c>
       <c r="G454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -16212,10 +16218,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F455" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16241,10 +16247,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>851</v>
+        <v>263</v>
       </c>
       <c r="F456" t="s">
-        <v>852</v>
+        <v>264</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16270,13 +16276,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>561</v>
+        <v>853</v>
       </c>
       <c r="F457" t="s">
-        <v>562</v>
+        <v>854</v>
       </c>
       <c r="G457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -16299,13 +16305,13 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>853</v>
+        <v>563</v>
       </c>
       <c r="F458" t="s">
-        <v>854</v>
+        <v>564</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -16386,10 +16392,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>821</v>
+        <v>859</v>
       </c>
       <c r="F461" t="s">
-        <v>822</v>
+        <v>860</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16415,10 +16421,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
       <c r="F462" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16473,10 +16479,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>485</v>
+        <v>863</v>
       </c>
       <c r="F464" t="s">
-        <v>486</v>
+        <v>864</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16502,10 +16508,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>655</v>
+        <v>487</v>
       </c>
       <c r="F465" t="s">
-        <v>656</v>
+        <v>488</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16531,10 +16537,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>863</v>
+        <v>657</v>
       </c>
       <c r="F466" t="s">
-        <v>864</v>
+        <v>658</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16653,7 +16659,7 @@
         <v>872</v>
       </c>
       <c r="G470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -16682,7 +16688,7 @@
         <v>874</v>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -16827,7 +16833,7 @@
         <v>884</v>
       </c>
       <c r="G476" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -16856,7 +16862,7 @@
         <v>886</v>
       </c>
       <c r="G477" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -16879,18 +16885,47 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F478" t="s">
+        <v>888</v>
+      </c>
+      <c r="G478" t="n">
+        <v>3</v>
+      </c>
+      <c r="H478" t="s">
+        <v>4</v>
+      </c>
+      <c r="I478" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>0</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1</v>
+      </c>
+      <c r="D479" t="n">
+        <v>478</v>
+      </c>
+      <c r="E479" t="s">
         <v>887</v>
       </c>
-      <c r="G478" t="n">
-        <v>1</v>
-      </c>
-      <c r="H478" t="s">
-        <v>4</v>
-      </c>
-      <c r="I478" t="n">
+      <c r="F479" t="s">
+        <v>889</v>
+      </c>
+      <c r="G479" t="n">
+        <v>1</v>
+      </c>
+      <c r="H479" t="s">
+        <v>4</v>
+      </c>
+      <c r="I479" t="n">
         <v>3</v>
       </c>
     </row>
